--- a/管理者视图功能列表(1).xlsx
+++ b/管理者视图功能列表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22650" windowHeight="10950"/>
+    <workbookView windowWidth="22680" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>序号</t>
   </si>
@@ -205,12 +205,15 @@
     <t>视图编辑器</t>
   </si>
   <si>
-    <t>可将视图另存为</t>
+    <t>可将视图另存为，保存，视图模板的修改</t>
   </si>
   <si>
     <t>9.7</t>
   </si>
   <si>
+    <t>10，11</t>
+  </si>
+  <si>
     <t>导出视图为PDF</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>9.25</t>
+  </si>
+  <si>
+    <t>表格，柱状图，折线图，饼图，散点图，雷达图样式的修改，优化，</t>
   </si>
   <si>
     <t>支持预览视图，组件可控大小，拖拽</t>
@@ -393,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -430,17 +436,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,21 +445,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -470,7 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,13 +468,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,23 +488,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +517,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -550,19 +548,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,187 +601,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,36 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -882,6 +858,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,16 +899,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,133 +964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2138,6 +2144,12 @@
       <c r="H23" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="I23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10.12</v>
+      </c>
       <c r="K23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2148,16 +2160,16 @@
     <row r="24" spans="2:12">
       <c r="B24" s="12"/>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>14</v>
@@ -2169,25 +2181,25 @@
     <row r="25" spans="2:5">
       <c r="B25" s="12"/>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="12"/>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3">
         <v>10</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>14</v>
@@ -2199,13 +2211,13 @@
     <row r="27" spans="2:12">
       <c r="B27" s="12"/>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3">
         <v>10</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>28</v>
@@ -2220,22 +2232,16 @@
     <row r="28" spans="2:12">
       <c r="B28" s="12"/>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
-        <v>9.24</v>
+        <v>10.8</v>
       </c>
       <c r="J28" s="3">
-        <v>9.28</v>
+        <v>10.11</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>14</v>
@@ -2246,26 +2252,23 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="12"/>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="3">
-        <v>6</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="14">
-        <v>8.6</v>
+        <v>74</v>
+      </c>
+      <c r="I29" s="3">
+        <v>9.24</v>
       </c>
       <c r="J29" s="3">
-        <v>8.5</v>
+        <v>9.28</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>14</v>
@@ -2276,23 +2279,26 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="3">
-        <v>8.15</v>
+      <c r="I30" s="14">
+        <v>8.6</v>
       </c>
       <c r="J30" s="3">
-        <v>8.15</v>
+        <v>8.5</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
@@ -2303,29 +2309,23 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="12"/>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="H31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="3">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="I31" s="3">
-        <v>8.9</v>
+        <v>8.15</v>
       </c>
       <c r="J31" s="3">
-        <v>8.9</v>
+        <v>8.15</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>14</v>
@@ -2337,52 +2337,58 @@
     <row r="32" spans="2:12">
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="H32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>91</v>
+      <c r="I32" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8.9</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="12"/>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>14</v>
@@ -2391,69 +2397,76 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:12">
       <c r="B34" s="12"/>
       <c r="D34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>69</v>
+      <c r="H34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="12"/>
       <c r="D35" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:12">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="12"/>
+      <c r="D36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="20">
-        <v>1</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="31">
-        <v>9.11</v>
-      </c>
-      <c r="J36" s="31">
-        <v>9.11</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>15</v>
+      <c r="E36" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:12">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="D37" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
       <c r="F37" s="14"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="G37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="31">
+        <v>9.11</v>
+      </c>
+      <c r="J37" s="31">
+        <v>9.11</v>
+      </c>
       <c r="K37" s="14" t="s">
         <v>14</v>
       </c>
@@ -2461,57 +2474,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:12">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="3">
+      <c r="C39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="3">
         <v>6</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="G39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="3">
         <v>9.12</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J39" s="3">
         <v>9.12</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="12"/>
-      <c r="D39" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="22">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="33">
-        <v>9.13</v>
-      </c>
-      <c r="J39" s="33">
-        <v>9.14</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>14</v>
@@ -2525,11 +2531,21 @@
       <c r="D40" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="33">
+        <v>9.13</v>
+      </c>
+      <c r="J40" s="33">
+        <v>9.14</v>
+      </c>
       <c r="K40" s="3" t="s">
         <v>14</v>
       </c>
@@ -2540,13 +2556,13 @@
     <row r="41" spans="2:12">
       <c r="B41" s="12"/>
       <c r="D41" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
       <c r="K41" s="3" t="s">
         <v>14</v>
       </c>
@@ -2556,24 +2572,14 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="12"/>
-      <c r="C42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="3">
-        <v>9.19</v>
-      </c>
-      <c r="J42" s="3">
-        <v>9.19</v>
-      </c>
+      <c r="E42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2584,25 +2590,22 @@
     <row r="43" spans="2:12">
       <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="I43" s="3">
-        <v>9.21</v>
+        <v>9.19</v>
       </c>
       <c r="J43" s="3">
-        <v>9.21</v>
+        <v>9.19</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>14</v>
@@ -2611,16 +2614,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:12">
       <c r="B44" s="12"/>
       <c r="C44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>69</v>
+      <c r="H44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9.21</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9.21</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -2632,7 +2653,7 @@
         <v>119</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -2644,7 +2665,7 @@
         <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -2653,44 +2674,56 @@
         <v>122</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="12"/>
+      <c r="C48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>123</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B37"/>
-    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B11:B38"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E42"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H40:H42"/>
     <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I40:I42"/>
     <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/管理者视图功能列表(1).xlsx
+++ b/管理者视图功能列表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22680" windowHeight="10950"/>
+    <workbookView windowWidth="23895" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>序号</t>
   </si>
@@ -295,16 +295,22 @@
     <t>8.16</t>
   </si>
   <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>可添加图片组件</t>
+    <t>10，,29</t>
+  </si>
+  <si>
+    <t>10,31</t>
+  </si>
+  <si>
+    <t>可添实时组件</t>
   </si>
   <si>
     <t>8.17</t>
   </si>
   <si>
     <t>8.20</t>
+  </si>
+  <si>
+    <t>11，2</t>
   </si>
   <si>
     <t>可添加web组件</t>
@@ -401,8 +407,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -445,7 +451,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,14 +473,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,6 +519,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,13 +554,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -509,56 +562,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,9 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,90 +607,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -697,91 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,6 +853,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -866,7 +907,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,39 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -933,17 +950,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -952,10 +958,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,133 +970,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,8 +1530,8 @@
   <sheetPr/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D33:M33 D34:M34 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2388,7 +2394,7 @@
         <v>93</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>14</v>
@@ -2400,22 +2406,22 @@
     <row r="34" spans="2:12">
       <c r="B34" s="12"/>
       <c r="D34" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10.31</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -2427,7 +2433,7 @@
     <row r="35" spans="2:5">
       <c r="B35" s="12"/>
       <c r="D35" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>70</v>
@@ -2436,7 +2442,7 @@
     <row r="36" spans="2:5">
       <c r="B36" s="12"/>
       <c r="D36" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>70</v>
@@ -2446,20 +2452,20 @@
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" s="20">
         <v>1</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I37" s="31">
         <v>9.11</v>
@@ -2479,7 +2485,7 @@
       <c r="B38" s="15"/>
       <c r="C38" s="19"/>
       <c r="D38" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="14"/>
@@ -2496,22 +2502,22 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="3">
         <v>6</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I39" s="3">
         <v>9.12</v>
@@ -2529,16 +2535,16 @@
     <row r="40" spans="2:12">
       <c r="B40" s="12"/>
       <c r="D40" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I40" s="33">
         <v>9.13</v>
@@ -2556,7 +2562,7 @@
     <row r="41" spans="2:12">
       <c r="B41" s="12"/>
       <c r="D41" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" s="22"/>
       <c r="G41" s="23"/>
@@ -2573,7 +2579,7 @@
     <row r="42" spans="2:12">
       <c r="B42" s="12"/>
       <c r="D42" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" s="22"/>
       <c r="G42" s="23"/>
@@ -2590,16 +2596,16 @@
     <row r="43" spans="2:12">
       <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I43" s="3">
         <v>9.19</v>
@@ -2617,19 +2623,19 @@
     <row r="44" spans="2:12">
       <c r="B44" s="12"/>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I44" s="3">
         <v>9.21</v>
@@ -2647,10 +2653,10 @@
     <row r="45" spans="2:5">
       <c r="B45" s="12"/>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>70</v>
@@ -2659,10 +2665,10 @@
     <row r="46" spans="2:5">
       <c r="B46" s="12"/>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>70</v>
@@ -2671,10 +2677,10 @@
     <row r="47" spans="2:5">
       <c r="B47" s="12"/>
       <c r="C47" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>70</v>
@@ -2683,10 +2689,10 @@
     <row r="48" spans="2:5">
       <c r="B48" s="12"/>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>70</v>
@@ -2694,7 +2700,7 @@
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
